--- a/2024/tmp/CCA Senior League Division 1.xlsx
+++ b/2024/tmp/CCA Senior League Division 1.xlsx
@@ -49,181 +49,181 @@
     <t>117767</t>
   </si>
   <si>
+    <t>Horseheath CC - 1st XI</t>
+  </si>
+  <si>
+    <t>134360</t>
+  </si>
+  <si>
     <t>Abington CC, Cambs - 1st XI</t>
   </si>
   <si>
     <t>29732</t>
   </si>
   <si>
+    <t>The Cricket Meadow, Howards Lane</t>
+  </si>
+  <si>
+    <t>2024/08/10</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>Wilburton CC - 1st XI</t>
+  </si>
+  <si>
+    <t>60408</t>
+  </si>
+  <si>
+    <t>2024/06/29</t>
+  </si>
+  <si>
+    <t>Ramsey CC, Hunts - 2nd XI</t>
+  </si>
+  <si>
+    <t>78071</t>
+  </si>
+  <si>
+    <t>2024/06/08</t>
+  </si>
+  <si>
+    <t>Bluntisham CC - 1st XI</t>
+  </si>
+  <si>
+    <t>41728</t>
+  </si>
+  <si>
+    <t>2024/07/13</t>
+  </si>
+  <si>
+    <t>Fulbourn Institute CC - 1st XI</t>
+  </si>
+  <si>
+    <t>32550</t>
+  </si>
+  <si>
+    <t>2024/05/18</t>
+  </si>
+  <si>
+    <t>City of Ely CC - 1st XI</t>
+  </si>
+  <si>
+    <t>23142</t>
+  </si>
+  <si>
+    <t>2024/05/25</t>
+  </si>
+  <si>
+    <t>Longstanton Grasshoppers CC - 1st XI</t>
+  </si>
+  <si>
+    <t>12244</t>
+  </si>
+  <si>
+    <t>2024/06/15</t>
+  </si>
+  <si>
     <t>Wisbech Town CC - 2nd XI</t>
   </si>
   <si>
     <t>14510</t>
   </si>
   <si>
+    <t>2024/08/31</t>
+  </si>
+  <si>
+    <t>Thriplow CC - 1st XI</t>
+  </si>
+  <si>
+    <t>51520</t>
+  </si>
+  <si>
+    <t>2024/05/11</t>
+  </si>
+  <si>
+    <t>Fulbourn Recreation Ground</t>
+  </si>
+  <si>
+    <t>9770</t>
+  </si>
+  <si>
+    <t>2024/07/20</t>
+  </si>
+  <si>
+    <t>2024/07/06</t>
+  </si>
+  <si>
+    <t>2024/08/17</t>
+  </si>
+  <si>
+    <t>2024/06/22</t>
+  </si>
+  <si>
+    <t>Wisbech Town CC</t>
+  </si>
+  <si>
+    <t>11646</t>
+  </si>
+  <si>
+    <t>2024/06/01</t>
+  </si>
+  <si>
+    <t>2024/08/24</t>
+  </si>
+  <si>
+    <t>The Piece Ground</t>
+  </si>
+  <si>
+    <t>2191</t>
+  </si>
+  <si>
+    <t>2024/05/04</t>
+  </si>
+  <si>
+    <t>2024/07/27</t>
+  </si>
+  <si>
+    <t>Bluntisham Recreation Ground</t>
+  </si>
+  <si>
+    <t>13076</t>
+  </si>
+  <si>
+    <t>2024/08/03</t>
+  </si>
+  <si>
+    <t>Thriplow</t>
+  </si>
+  <si>
+    <t>4585</t>
+  </si>
+  <si>
+    <t>The Cricketfield</t>
+  </si>
+  <si>
+    <t>14834</t>
+  </si>
+  <si>
+    <t>2024/04/27</t>
+  </si>
+  <si>
     <t>Abington Cricket Ground</t>
   </si>
   <si>
     <t>13558</t>
   </si>
   <si>
-    <t>2024/06/15</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>Ramsey CC, Hunts - 2nd XI</t>
-  </si>
-  <si>
-    <t>78071</t>
-  </si>
-  <si>
-    <t>2024/06/29</t>
-  </si>
-  <si>
-    <t>Longstanton Grasshoppers CC - 1st XI</t>
-  </si>
-  <si>
-    <t>12244</t>
-  </si>
-  <si>
-    <t>2024/07/27</t>
-  </si>
-  <si>
-    <t>Thriplow CC - 1st XI</t>
-  </si>
-  <si>
-    <t>51520</t>
-  </si>
-  <si>
-    <t>2024/08/17</t>
-  </si>
-  <si>
-    <t>Wilburton CC - 1st XI</t>
-  </si>
-  <si>
-    <t>60408</t>
-  </si>
-  <si>
-    <t>2024/05/11</t>
-  </si>
-  <si>
-    <t>Bluntisham CC - 1st XI</t>
-  </si>
-  <si>
-    <t>41728</t>
-  </si>
-  <si>
-    <t>2024/08/31</t>
-  </si>
-  <si>
-    <t>Horseheath CC - 1st XI</t>
-  </si>
-  <si>
-    <t>134360</t>
-  </si>
-  <si>
-    <t>2024/06/01</t>
-  </si>
-  <si>
-    <t>Fulbourn Institute CC - 1st XI</t>
-  </si>
-  <si>
-    <t>32550</t>
-  </si>
-  <si>
-    <t>2024/07/20</t>
-  </si>
-  <si>
-    <t>City of Ely CC - 1st XI</t>
-  </si>
-  <si>
-    <t>23142</t>
-  </si>
-  <si>
-    <t>2024/05/25</t>
-  </si>
-  <si>
     <t>The Paradise Centre</t>
   </si>
   <si>
     <t>25056</t>
   </si>
   <si>
-    <t>2024/07/06</t>
-  </si>
-  <si>
-    <t>2024/08/24</t>
-  </si>
-  <si>
-    <t>2024/08/03</t>
-  </si>
-  <si>
-    <t>2024/07/13</t>
-  </si>
-  <si>
-    <t>2024/05/18</t>
-  </si>
-  <si>
     <t>Longstanton Recreation Ground</t>
   </si>
   <si>
     <t>12312</t>
-  </si>
-  <si>
-    <t>2024/08/10</t>
-  </si>
-  <si>
-    <t>2024/06/22</t>
-  </si>
-  <si>
-    <t>The Cricket Meadow, Howards Lane</t>
-  </si>
-  <si>
-    <t>2024/05/04</t>
-  </si>
-  <si>
-    <t>Thriplow</t>
-  </si>
-  <si>
-    <t>4585</t>
-  </si>
-  <si>
-    <t>2024/06/08</t>
-  </si>
-  <si>
-    <t>Bluntisham Recreation Ground</t>
-  </si>
-  <si>
-    <t>13076</t>
-  </si>
-  <si>
-    <t>Wisbech Town CC</t>
-  </si>
-  <si>
-    <t>11646</t>
-  </si>
-  <si>
-    <t>2024/04/27</t>
-  </si>
-  <si>
-    <t>The Piece Ground</t>
-  </si>
-  <si>
-    <t>2191</t>
-  </si>
-  <si>
-    <t>The Cricketfield</t>
-  </si>
-  <si>
-    <t>14834</t>
-  </si>
-  <si>
-    <t>Fulbourn Recreation Ground</t>
-  </si>
-  <si>
-    <t>9770</t>
   </si>
 </sst>
 </file>
@@ -265,7 +265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.25" spans="1:10">
+    <row r="2" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -287,17 +287,14 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -311,25 +308,22 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -343,25 +337,22 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -375,25 +366,22 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -407,25 +395,22 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -439,25 +424,22 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -471,25 +453,22 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
-        <v>17</v>
-      </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -503,25 +482,22 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.25" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -535,22 +511,19 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" x14ac:dyDescent="0.25" spans="1:10">
@@ -561,28 +534,28 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
         <v>44</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>45</v>
       </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" x14ac:dyDescent="0.25" spans="1:10">
@@ -593,28 +566,28 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
       </c>
       <c r="I12" t="s">
         <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" x14ac:dyDescent="0.25" spans="1:10">
@@ -625,28 +598,28 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
       </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
       <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>45</v>
       </c>
       <c r="I13" t="s">
         <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" x14ac:dyDescent="0.25" spans="1:10">
@@ -657,28 +630,28 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
-      </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" x14ac:dyDescent="0.25" spans="1:10">
@@ -689,28 +662,28 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" t="s">
-        <v>45</v>
-      </c>
       <c r="I15" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" x14ac:dyDescent="0.25" spans="1:10">
@@ -721,28 +694,28 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" x14ac:dyDescent="0.25" spans="1:10">
@@ -753,28 +726,28 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
-        <v>45</v>
-      </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" x14ac:dyDescent="0.25" spans="1:10">
@@ -785,28 +758,28 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
         <v>44</v>
       </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" x14ac:dyDescent="0.25" spans="1:10">
@@ -817,28 +790,28 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="H19" t="s">
-        <v>45</v>
-      </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" x14ac:dyDescent="0.25" spans="1:10">
@@ -849,28 +822,28 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>27</v>
-      </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" x14ac:dyDescent="0.25" spans="1:10">
@@ -881,28 +854,28 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" x14ac:dyDescent="0.25" spans="1:10">
@@ -913,28 +886,28 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" x14ac:dyDescent="0.25" spans="1:10">
@@ -945,28 +918,28 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" x14ac:dyDescent="0.25" spans="1:10">
@@ -977,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" x14ac:dyDescent="0.25" spans="1:10">
@@ -1009,28 +982,28 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" x14ac:dyDescent="0.25" spans="1:10">
@@ -1041,28 +1014,28 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" t="s">
         <v>51</v>
       </c>
-      <c r="H26" t="s">
-        <v>52</v>
-      </c>
-      <c r="I26" t="s">
-        <v>34</v>
-      </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" x14ac:dyDescent="0.25" spans="1:10">
@@ -1073,28 +1046,28 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
         <v>52</v>
       </c>
-      <c r="I27" t="s">
-        <v>54</v>
-      </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" x14ac:dyDescent="0.25" spans="1:10">
@@ -1105,289 +1078,316 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25" spans="1:10">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s">
         <v>14</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F37" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" t="s">
-        <v>52</v>
-      </c>
-      <c r="I28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-      <c r="J29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
         <v>54</v>
       </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="I35" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" x14ac:dyDescent="0.25" spans="1:9">
-      <c r="A37" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" x14ac:dyDescent="0.25" spans="1:10">
@@ -1398,16 +1398,16 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="D38" t="s">
-        <v>27</v>
-      </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
         <v>57</v>
@@ -1416,10 +1416,10 @@
         <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25" spans="1:10">
@@ -1430,16 +1430,16 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
         <v>26</v>
       </c>
-      <c r="D39" t="s">
-        <v>27</v>
-      </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>57</v>
@@ -1448,10 +1448,10 @@
         <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" x14ac:dyDescent="0.25" spans="1:10">
@@ -1462,16 +1462,16 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" t="s">
         <v>26</v>
       </c>
-      <c r="D40" t="s">
-        <v>27</v>
-      </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
         <v>57</v>
@@ -1480,10 +1480,10 @@
         <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" x14ac:dyDescent="0.25" spans="1:10">
@@ -1494,16 +1494,16 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" t="s">
         <v>26</v>
       </c>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
         <v>57</v>
@@ -1512,10 +1512,10 @@
         <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25" spans="1:10">
@@ -1526,16 +1526,16 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" t="s">
-        <v>27</v>
-      </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>57</v>
@@ -1544,10 +1544,10 @@
         <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25" spans="1:10">
@@ -1558,16 +1558,16 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
         <v>26</v>
       </c>
-      <c r="D43" t="s">
-        <v>27</v>
-      </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>57</v>
@@ -1576,10 +1576,10 @@
         <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25" spans="1:10">
@@ -1590,16 +1590,16 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
         <v>26</v>
       </c>
-      <c r="D44" t="s">
-        <v>27</v>
-      </c>
       <c r="E44" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
         <v>57</v>
@@ -1608,10 +1608,10 @@
         <v>58</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25" spans="1:10">
@@ -1622,16 +1622,16 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
         <v>26</v>
       </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>57</v>
@@ -1640,10 +1640,10 @@
         <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25" spans="1:10">
@@ -1654,16 +1654,16 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
         <v>26</v>
       </c>
-      <c r="D46" t="s">
-        <v>27</v>
-      </c>
       <c r="E46" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
         <v>57</v>
@@ -1672,10 +1672,10 @@
         <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25" spans="1:10">
@@ -1686,16 +1686,16 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G47" t="s">
         <v>60</v>
@@ -1704,10 +1704,10 @@
         <v>61</v>
       </c>
       <c r="I47" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25" spans="1:10">
@@ -1718,16 +1718,16 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G48" t="s">
         <v>60</v>
@@ -1736,10 +1736,10 @@
         <v>61</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25" spans="1:10">
@@ -1750,16 +1750,16 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" t="s">
         <v>32</v>
-      </c>
-      <c r="D49" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" t="s">
-        <v>42</v>
       </c>
       <c r="G49" t="s">
         <v>60</v>
@@ -1768,10 +1768,10 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25" spans="1:10">
@@ -1782,10 +1782,10 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -1800,10 +1800,10 @@
         <v>61</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25" spans="1:10">
@@ -1814,16 +1814,16 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G51" t="s">
         <v>60</v>
@@ -1832,10 +1832,10 @@
         <v>61</v>
       </c>
       <c r="I51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25" spans="1:10">
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>60</v>
@@ -1864,10 +1864,10 @@
         <v>61</v>
       </c>
       <c r="I52" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25" spans="1:10">
@@ -1878,16 +1878,16 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
         <v>60</v>
@@ -1896,10 +1896,10 @@
         <v>61</v>
       </c>
       <c r="I53" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25" spans="1:10">
@@ -1910,16 +1910,16 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>60</v>
@@ -1928,10 +1928,10 @@
         <v>61</v>
       </c>
       <c r="I54" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25" spans="1:10">
@@ -1942,16 +1942,16 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -1960,10 +1960,10 @@
         <v>61</v>
       </c>
       <c r="I55" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" x14ac:dyDescent="0.25" spans="1:10">
@@ -1974,16 +1974,16 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s">
         <v>62</v>
@@ -1992,10 +1992,10 @@
         <v>63</v>
       </c>
       <c r="I56" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25" spans="1:10">
@@ -2006,16 +2006,16 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2024,10 +2024,10 @@
         <v>63</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25" spans="1:10">
@@ -2038,16 +2038,16 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F58" t="s">
         <v>38</v>
-      </c>
-      <c r="F58" t="s">
-        <v>39</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2056,10 +2056,10 @@
         <v>63</v>
       </c>
       <c r="I58" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25" spans="1:10">
@@ -2070,16 +2070,16 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
         <v>62</v>
@@ -2088,10 +2088,10 @@
         <v>63</v>
       </c>
       <c r="I59" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25" spans="1:10">
@@ -2102,16 +2102,16 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
         <v>35</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>62</v>
@@ -2120,10 +2120,10 @@
         <v>63</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="J60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25" spans="1:10">
@@ -2134,16 +2134,16 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F61" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>62</v>
@@ -2152,10 +2152,10 @@
         <v>63</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25" spans="1:10">
@@ -2166,16 +2166,16 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G62" t="s">
         <v>62</v>
@@ -2184,10 +2184,10 @@
         <v>63</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" x14ac:dyDescent="0.25" spans="1:10">
@@ -2198,16 +2198,16 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
         <v>14</v>
       </c>
-      <c r="D63" t="s">
+      <c r="F63" t="s">
         <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" t="s">
-        <v>27</v>
       </c>
       <c r="G63" t="s">
         <v>62</v>
@@ -2216,10 +2216,10 @@
         <v>63</v>
       </c>
       <c r="I63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" x14ac:dyDescent="0.25" spans="1:10">
@@ -2230,16 +2230,16 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>62</v>
@@ -2248,10 +2248,10 @@
         <v>63</v>
       </c>
       <c r="I64" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25" spans="1:10">
@@ -2262,16 +2262,16 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>65</v>
@@ -2280,10 +2280,10 @@
         <v>66</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25" spans="1:10">
@@ -2294,16 +2294,16 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
         <v>65</v>
@@ -2312,10 +2312,10 @@
         <v>66</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" x14ac:dyDescent="0.25" spans="1:10">
@@ -2326,16 +2326,16 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
         <v>65</v>
@@ -2344,10 +2344,10 @@
         <v>66</v>
       </c>
       <c r="I67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" x14ac:dyDescent="0.25" spans="1:10">
@@ -2358,16 +2358,16 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G68" t="s">
         <v>65</v>
@@ -2376,10 +2376,10 @@
         <v>66</v>
       </c>
       <c r="I68" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" x14ac:dyDescent="0.25" spans="1:10">
@@ -2390,16 +2390,16 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
         <v>65</v>
@@ -2408,10 +2408,10 @@
         <v>66</v>
       </c>
       <c r="I69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" x14ac:dyDescent="0.25" spans="1:10">
@@ -2422,16 +2422,16 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>65</v>
@@ -2440,10 +2440,10 @@
         <v>66</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" x14ac:dyDescent="0.25" spans="1:10">
@@ -2454,16 +2454,16 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>65</v>
@@ -2472,10 +2472,10 @@
         <v>66</v>
       </c>
       <c r="I71" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" x14ac:dyDescent="0.25" spans="1:10">
@@ -2486,16 +2486,16 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s">
         <v>29</v>
-      </c>
-      <c r="D72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" t="s">
-        <v>13</v>
       </c>
       <c r="G72" t="s">
         <v>65</v>
@@ -2504,10 +2504,10 @@
         <v>66</v>
       </c>
       <c r="I72" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" x14ac:dyDescent="0.25" spans="1:10">
@@ -2518,16 +2518,16 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
         <v>65</v>
@@ -2536,10 +2536,10 @@
         <v>66</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="J73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" x14ac:dyDescent="0.25" spans="1:10">
@@ -2550,16 +2550,16 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E74" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
         <v>67</v>
@@ -2568,10 +2568,10 @@
         <v>68</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="J74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" x14ac:dyDescent="0.25" spans="1:10">
@@ -2582,16 +2582,16 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
+      </c>
+      <c r="E75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
         <v>20</v>
-      </c>
-      <c r="D75" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" t="s">
-        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>67</v>
@@ -2600,10 +2600,10 @@
         <v>68</v>
       </c>
       <c r="I75" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" x14ac:dyDescent="0.25" spans="1:10">
@@ -2614,16 +2614,16 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G76" t="s">
         <v>67</v>
@@ -2632,10 +2632,10 @@
         <v>68</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" x14ac:dyDescent="0.25" spans="1:10">
@@ -2646,16 +2646,16 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>67</v>
@@ -2664,10 +2664,10 @@
         <v>68</v>
       </c>
       <c r="I77" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" x14ac:dyDescent="0.25" spans="1:10">
@@ -2678,16 +2678,16 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" t="s">
         <v>23</v>
-      </c>
-      <c r="F78" t="s">
-        <v>24</v>
       </c>
       <c r="G78" t="s">
         <v>67</v>
@@ -2696,10 +2696,10 @@
         <v>68</v>
       </c>
       <c r="I78" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" x14ac:dyDescent="0.25" spans="1:10">
@@ -2710,16 +2710,16 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
         <v>67</v>
@@ -2728,10 +2728,10 @@
         <v>68</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" x14ac:dyDescent="0.25" spans="1:10">
@@ -2742,16 +2742,16 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G80" t="s">
         <v>67</v>
@@ -2760,10 +2760,10 @@
         <v>68</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" x14ac:dyDescent="0.25" spans="1:10">
@@ -2774,16 +2774,16 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>67</v>
@@ -2792,10 +2792,10 @@
         <v>68</v>
       </c>
       <c r="I81" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" x14ac:dyDescent="0.25" spans="1:10">
@@ -2806,16 +2806,16 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
         <v>67</v>
@@ -2824,10 +2824,10 @@
         <v>68</v>
       </c>
       <c r="I82" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" x14ac:dyDescent="0.25" spans="1:10">
@@ -2838,16 +2838,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
         <v>69</v>
@@ -2856,10 +2856,10 @@
         <v>70</v>
       </c>
       <c r="I83" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" x14ac:dyDescent="0.25" spans="1:10">
@@ -2870,16 +2870,16 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D84" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
         <v>69</v>
@@ -2888,10 +2888,10 @@
         <v>70</v>
       </c>
       <c r="I84" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J84" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" x14ac:dyDescent="0.25" spans="1:10">
@@ -2902,16 +2902,16 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
         <v>69</v>
@@ -2920,10 +2920,10 @@
         <v>70</v>
       </c>
       <c r="I85" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.25" spans="1:10">
@@ -2934,16 +2934,16 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>37</v>
+      </c>
+      <c r="F86" t="s">
         <v>38</v>
-      </c>
-      <c r="D86" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" t="s">
-        <v>12</v>
-      </c>
-      <c r="F86" t="s">
-        <v>13</v>
       </c>
       <c r="G86" t="s">
         <v>69</v>
@@ -2952,10 +2952,10 @@
         <v>70</v>
       </c>
       <c r="I86" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" x14ac:dyDescent="0.25" spans="1:10">
@@ -2966,16 +2966,16 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
         <v>69</v>
@@ -2984,10 +2984,10 @@
         <v>70</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" x14ac:dyDescent="0.25" spans="1:10">
@@ -2998,16 +2998,16 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
         <v>20</v>
-      </c>
-      <c r="F88" t="s">
-        <v>21</v>
       </c>
       <c r="G88" t="s">
         <v>69</v>
@@ -3016,10 +3016,10 @@
         <v>70</v>
       </c>
       <c r="I88" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" x14ac:dyDescent="0.25" spans="1:10">
@@ -3030,16 +3030,16 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D89" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
         <v>69</v>
@@ -3048,10 +3048,10 @@
         <v>70</v>
       </c>
       <c r="I89" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" x14ac:dyDescent="0.25" spans="1:10">
@@ -3062,16 +3062,16 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" t="s">
         <v>32</v>
-      </c>
-      <c r="F90" t="s">
-        <v>33</v>
       </c>
       <c r="G90" t="s">
         <v>69</v>
@@ -3080,10 +3080,10 @@
         <v>70</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" x14ac:dyDescent="0.25" spans="1:10">
@@ -3094,16 +3094,16 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>69</v>
@@ -3112,10 +3112,10 @@
         <v>70</v>
       </c>
       <c r="I91" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
